--- a/_data/DOGEUSDT_4h.xlsx
+++ b/_data/DOGEUSDT_4h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1084"/>
+  <dimension ref="A1:F1117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22081,6 +22081,666 @@
         <v>76233738</v>
       </c>
     </row>
+    <row r="1085" spans="1:6">
+      <c r="A1085" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1085">
+        <v>0.10131</v>
+      </c>
+      <c r="C1085">
+        <v>0.10249</v>
+      </c>
+      <c r="D1085">
+        <v>0.09805999999999999</v>
+      </c>
+      <c r="E1085">
+        <v>0.09848</v>
+      </c>
+      <c r="F1085">
+        <v>153686611</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6">
+      <c r="A1086" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1086">
+        <v>0.09848999999999999</v>
+      </c>
+      <c r="C1086">
+        <v>0.10167</v>
+      </c>
+      <c r="D1086">
+        <v>0.09697</v>
+      </c>
+      <c r="E1086">
+        <v>0.10016</v>
+      </c>
+      <c r="F1086">
+        <v>147208004</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6">
+      <c r="A1087" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1087">
+        <v>0.10016</v>
+      </c>
+      <c r="C1087">
+        <v>0.10315</v>
+      </c>
+      <c r="D1087">
+        <v>0.10012</v>
+      </c>
+      <c r="E1087">
+        <v>0.10177</v>
+      </c>
+      <c r="F1087">
+        <v>107645920</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6">
+      <c r="A1088" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1088">
+        <v>0.10177</v>
+      </c>
+      <c r="C1088">
+        <v>0.10239</v>
+      </c>
+      <c r="D1088">
+        <v>0.10087</v>
+      </c>
+      <c r="E1088">
+        <v>0.10126</v>
+      </c>
+      <c r="F1088">
+        <v>95799326</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6">
+      <c r="A1089" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1089">
+        <v>0.10127</v>
+      </c>
+      <c r="C1089">
+        <v>0.10192</v>
+      </c>
+      <c r="D1089">
+        <v>0.10097</v>
+      </c>
+      <c r="E1089">
+        <v>0.10111</v>
+      </c>
+      <c r="F1089">
+        <v>27910462</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6">
+      <c r="A1090" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1090">
+        <v>0.10111</v>
+      </c>
+      <c r="C1090">
+        <v>0.10152</v>
+      </c>
+      <c r="D1090">
+        <v>0.10035</v>
+      </c>
+      <c r="E1090">
+        <v>0.10125</v>
+      </c>
+      <c r="F1090">
+        <v>33504960</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6">
+      <c r="A1091" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1091">
+        <v>0.10125</v>
+      </c>
+      <c r="C1091">
+        <v>0.10166</v>
+      </c>
+      <c r="D1091">
+        <v>0.10076</v>
+      </c>
+      <c r="E1091">
+        <v>0.10163</v>
+      </c>
+      <c r="F1091">
+        <v>33413862</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6">
+      <c r="A1092" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1092">
+        <v>0.10164</v>
+      </c>
+      <c r="C1092">
+        <v>0.10231</v>
+      </c>
+      <c r="D1092">
+        <v>0.10055</v>
+      </c>
+      <c r="E1092">
+        <v>0.10106</v>
+      </c>
+      <c r="F1092">
+        <v>49284380</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6">
+      <c r="A1093" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1093">
+        <v>0.10106</v>
+      </c>
+      <c r="C1093">
+        <v>0.10145</v>
+      </c>
+      <c r="D1093">
+        <v>0.10091</v>
+      </c>
+      <c r="E1093">
+        <v>0.10134</v>
+      </c>
+      <c r="F1093">
+        <v>14408827</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6">
+      <c r="A1094" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1094">
+        <v>0.10128</v>
+      </c>
+      <c r="C1094">
+        <v>0.10153</v>
+      </c>
+      <c r="D1094">
+        <v>0.09974</v>
+      </c>
+      <c r="E1094">
+        <v>0.10028</v>
+      </c>
+      <c r="F1094">
+        <v>30930662</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6">
+      <c r="A1095" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1095">
+        <v>0.10027</v>
+      </c>
+      <c r="C1095">
+        <v>0.10028</v>
+      </c>
+      <c r="D1095">
+        <v>0.0985</v>
+      </c>
+      <c r="E1095">
+        <v>0.09975000000000001</v>
+      </c>
+      <c r="F1095">
+        <v>57564681</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6">
+      <c r="A1096" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1096">
+        <v>0.09974</v>
+      </c>
+      <c r="C1096">
+        <v>0.09984999999999999</v>
+      </c>
+      <c r="D1096">
+        <v>0.09863</v>
+      </c>
+      <c r="E1096">
+        <v>0.09936</v>
+      </c>
+      <c r="F1096">
+        <v>32497214</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6">
+      <c r="A1097" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1097">
+        <v>0.09936</v>
+      </c>
+      <c r="C1097">
+        <v>0.09944</v>
+      </c>
+      <c r="D1097">
+        <v>0.09726</v>
+      </c>
+      <c r="E1097">
+        <v>0.09855999999999999</v>
+      </c>
+      <c r="F1097">
+        <v>113374135</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6">
+      <c r="A1098" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1098">
+        <v>0.09855999999999999</v>
+      </c>
+      <c r="C1098">
+        <v>0.09887</v>
+      </c>
+      <c r="D1098">
+        <v>0.0975</v>
+      </c>
+      <c r="E1098">
+        <v>0.0979</v>
+      </c>
+      <c r="F1098">
+        <v>23488989</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6">
+      <c r="A1099" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1099">
+        <v>0.09912</v>
+      </c>
+      <c r="C1099">
+        <v>0.09952</v>
+      </c>
+      <c r="D1099">
+        <v>0.09876</v>
+      </c>
+      <c r="E1099">
+        <v>0.09879</v>
+      </c>
+      <c r="F1099">
+        <v>6176878</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6">
+      <c r="A1100" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1100">
+        <v>0.09508</v>
+      </c>
+      <c r="C1100">
+        <v>0.09606000000000001</v>
+      </c>
+      <c r="D1100">
+        <v>0.09468</v>
+      </c>
+      <c r="E1100">
+        <v>0.09522</v>
+      </c>
+      <c r="F1100">
+        <v>96705728</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6">
+      <c r="A1101" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1101">
+        <v>0.09521</v>
+      </c>
+      <c r="C1101">
+        <v>0.09571</v>
+      </c>
+      <c r="D1101">
+        <v>0.09408999999999999</v>
+      </c>
+      <c r="E1101">
+        <v>0.09453</v>
+      </c>
+      <c r="F1101">
+        <v>68536512</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6">
+      <c r="A1102" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1102">
+        <v>0.09452000000000001</v>
+      </c>
+      <c r="C1102">
+        <v>0.09802</v>
+      </c>
+      <c r="D1102">
+        <v>0.09440999999999999</v>
+      </c>
+      <c r="E1102">
+        <v>0.0973</v>
+      </c>
+      <c r="F1102">
+        <v>90853394</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1103">
+        <v>0.0973</v>
+      </c>
+      <c r="C1103">
+        <v>0.09797</v>
+      </c>
+      <c r="D1103">
+        <v>0.0961</v>
+      </c>
+      <c r="E1103">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="F1103">
+        <v>67286158</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6">
+      <c r="A1104" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1104">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="C1104">
+        <v>0.09809</v>
+      </c>
+      <c r="D1104">
+        <v>0.09691</v>
+      </c>
+      <c r="E1104">
+        <v>0.09783</v>
+      </c>
+      <c r="F1104">
+        <v>42463804</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6">
+      <c r="A1105" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1105">
+        <v>0.09784</v>
+      </c>
+      <c r="C1105">
+        <v>0.09822</v>
+      </c>
+      <c r="D1105">
+        <v>0.09761</v>
+      </c>
+      <c r="E1105">
+        <v>0.09816999999999999</v>
+      </c>
+      <c r="F1105">
+        <v>9136695</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6">
+      <c r="A1106" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1106">
+        <v>0.09912</v>
+      </c>
+      <c r="C1106">
+        <v>0.10081</v>
+      </c>
+      <c r="D1106">
+        <v>0.09881</v>
+      </c>
+      <c r="E1106">
+        <v>0.09957000000000001</v>
+      </c>
+      <c r="F1106">
+        <v>77084477</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6">
+      <c r="A1107" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1107">
+        <v>0.09958</v>
+      </c>
+      <c r="C1107">
+        <v>0.09972</v>
+      </c>
+      <c r="D1107">
+        <v>0.09901</v>
+      </c>
+      <c r="E1107">
+        <v>0.09959</v>
+      </c>
+      <c r="F1107">
+        <v>40230806</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6">
+      <c r="A1108" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1108">
+        <v>0.09959999999999999</v>
+      </c>
+      <c r="C1108">
+        <v>0.0997</v>
+      </c>
+      <c r="D1108">
+        <v>0.09859999999999999</v>
+      </c>
+      <c r="E1108">
+        <v>0.09962</v>
+      </c>
+      <c r="F1108">
+        <v>27094673</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6">
+      <c r="A1109" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1109">
+        <v>0.09962</v>
+      </c>
+      <c r="C1109">
+        <v>0.1005</v>
+      </c>
+      <c r="D1109">
+        <v>0.09673</v>
+      </c>
+      <c r="E1109">
+        <v>0.09692000000000001</v>
+      </c>
+      <c r="F1109">
+        <v>115797619</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6">
+      <c r="A1110" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1110">
+        <v>0.0969</v>
+      </c>
+      <c r="C1110">
+        <v>0.09863</v>
+      </c>
+      <c r="D1110">
+        <v>0.09667000000000001</v>
+      </c>
+      <c r="E1110">
+        <v>0.09773</v>
+      </c>
+      <c r="F1110">
+        <v>47972720</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6">
+      <c r="A1111" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1111">
+        <v>0.09773</v>
+      </c>
+      <c r="C1111">
+        <v>0.09814000000000001</v>
+      </c>
+      <c r="D1111">
+        <v>0.09639</v>
+      </c>
+      <c r="E1111">
+        <v>0.09676999999999999</v>
+      </c>
+      <c r="F1111">
+        <v>45738801</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6">
+      <c r="A1112" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1112">
+        <v>0.09678</v>
+      </c>
+      <c r="C1112">
+        <v>0.0975</v>
+      </c>
+      <c r="D1112">
+        <v>0.09184</v>
+      </c>
+      <c r="E1112">
+        <v>0.09581000000000001</v>
+      </c>
+      <c r="F1112">
+        <v>244041508</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6">
+      <c r="A1113" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1113">
+        <v>0.09581000000000001</v>
+      </c>
+      <c r="C1113">
+        <v>0.09676</v>
+      </c>
+      <c r="D1113">
+        <v>0.09449</v>
+      </c>
+      <c r="E1113">
+        <v>0.09636</v>
+      </c>
+      <c r="F1113">
+        <v>95979560</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6">
+      <c r="A1114" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1114">
+        <v>0.09637</v>
+      </c>
+      <c r="C1114">
+        <v>0.09697</v>
+      </c>
+      <c r="D1114">
+        <v>0.09506000000000001</v>
+      </c>
+      <c r="E1114">
+        <v>0.09556000000000001</v>
+      </c>
+      <c r="F1114">
+        <v>62215466</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6">
+      <c r="A1115" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1115">
+        <v>0.09556000000000001</v>
+      </c>
+      <c r="C1115">
+        <v>0.0988</v>
+      </c>
+      <c r="D1115">
+        <v>0.09487</v>
+      </c>
+      <c r="E1115">
+        <v>0.09854</v>
+      </c>
+      <c r="F1115">
+        <v>136433380</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6">
+      <c r="A1116" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1116">
+        <v>0.09853000000000001</v>
+      </c>
+      <c r="C1116">
+        <v>0.09951</v>
+      </c>
+      <c r="D1116">
+        <v>0.09759</v>
+      </c>
+      <c r="E1116">
+        <v>0.09798999999999999</v>
+      </c>
+      <c r="F1116">
+        <v>91680872</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6">
+      <c r="A1117" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1117">
+        <v>0.09805</v>
+      </c>
+      <c r="C1117">
+        <v>0.09812</v>
+      </c>
+      <c r="D1117">
+        <v>0.0979</v>
+      </c>
+      <c r="E1117">
+        <v>0.09795</v>
+      </c>
+      <c r="F1117">
+        <v>157266</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
